--- a/Рабочие материалы/Реальные группы 2025-2026/новички_2025.xlsx
+++ b/Рабочие материалы/Реальные группы 2025-2026/новички_2025.xlsx
@@ -1138,14 +1138,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC9" sqref="AC9"/>
+      <selection pane="bottomRight" activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1168,13 +1168,13 @@
     <col min="21" max="21" width="9" style="1"/>
     <col min="22" max="22" width="11.4444444444444" style="1" customWidth="1"/>
     <col min="23" max="24" width="10.8888888888889" style="1"/>
-    <col min="25" max="25" width="9" style="1"/>
-    <col min="26" max="27" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="25" max="27" width="3.66666666666667" style="1" customWidth="1"/>
     <col min="28" max="28" width="2.66666666666667" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="1"/>
+    <col min="29" max="29" width="10.8888888888889" style="1"/>
+    <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1220,8 +1220,11 @@
       <c r="AA1" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="AC1" s="5">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1276,8 +1279,14 @@
       <c r="W2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1356,8 +1365,14 @@
       <c r="AB3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1406,8 +1421,14 @@
       <c r="AB4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1481,10 +1502,16 @@
         <v>-1</v>
       </c>
       <c r="AB5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1530,8 +1557,14 @@
       <c r="AB6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1613,8 +1646,14 @@
       <c r="AB7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1651,6 +1690,12 @@
       <c r="W8" s="1">
         <v>6</v>
       </c>
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
@@ -1735,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1800,6 +1845,12 @@
         <v>0</v>
       </c>
       <c r="AB10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1880,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1921,10 +1972,16 @@
         <v>-1</v>
       </c>
       <c r="AB12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1982,8 +2039,14 @@
       <c r="AB13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2053,6 +2116,12 @@
       <c r="AB14" s="1">
         <v>0</v>
       </c>
+      <c r="AC14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="1" t="s">
@@ -2116,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:18">

--- a/Рабочие материалы/Реальные группы 2025-2026/новички_2025.xlsx
+++ b/Рабочие материалы/Реальные группы 2025-2026/новички_2025.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$N$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$N$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>Педагог</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Илюшкин</t>
+  </si>
+  <si>
+    <t>Кирилл</t>
+  </si>
+  <si>
+    <t>Тепляков</t>
   </si>
   <si>
     <t>Герман</t>
@@ -1138,14 +1144,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF5" sqref="AF5"/>
+      <selection pane="bottomRight" activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1171,10 +1177,14 @@
     <col min="25" max="27" width="3.66666666666667" style="1" customWidth="1"/>
     <col min="28" max="28" width="2.66666666666667" style="1" customWidth="1"/>
     <col min="29" max="29" width="10.8888888888889" style="1"/>
-    <col min="30" max="16384" width="9" style="1"/>
+    <col min="30" max="30" width="2.66666666666667" style="1" customWidth="1"/>
+    <col min="31" max="32" width="10.8888888888889" style="1"/>
+    <col min="33" max="33" width="2.66666666666667" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.8888888888889" style="1"/>
+    <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:34">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1223,8 +1233,17 @@
       <c r="AC1" s="5">
         <v>45983</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="5">
+        <v>45990</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>45997</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>46004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1285,8 +1304,14 @@
       <c r="AD2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1371,8 +1396,14 @@
       <c r="AD3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1427,8 +1458,17 @@
       <c r="AD4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1510,8 +1550,20 @@
       <c r="AD5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AE5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1563,8 +1615,17 @@
       <c r="AD6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AE6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1652,8 +1713,17 @@
       <c r="AD7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1696,8 +1766,17 @@
       <c r="AD8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AE8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1779,8 +1858,14 @@
       <c r="AB9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AF9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1853,6 +1938,18 @@
       <c r="AD10" s="1">
         <v>0</v>
       </c>
+      <c r="AE10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="1" t="s">
@@ -1931,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1980,8 +2077,17 @@
       <c r="AD12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2045,8 +2151,20 @@
       <c r="AD13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AE13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -2122,8 +2240,20 @@
       <c r="AD14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AE14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -2187,16 +2317,45 @@
       <c r="AB15" s="1">
         <v>2</v>
       </c>
+      <c r="AF15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33">
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
@@ -2207,10 +2366,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R20" s="1">
         <v>0</v>
@@ -2221,10 +2380,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -2235,10 +2394,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="R22" s="1">
         <v>0</v>
@@ -2249,10 +2408,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R23" s="1">
         <v>0</v>
@@ -2266,7 +2425,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R24" s="1">
         <v>0</v>
@@ -2277,10 +2436,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -2294,7 +2453,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -2305,10 +2464,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -2319,17 +2478,17 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:N15" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:N16" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
